--- a/MySQL/configuration/transiciones.xlsx
+++ b/MySQL/configuration/transiciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95C6CD-24BE-410D-9D4D-0C513E0DA702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540660E-3670-43CC-B034-9F8957492CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>id_transicion</t>
   </si>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +413,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MySQL/configuration/transiciones.xlsx
+++ b/MySQL/configuration/transiciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540660E-3670-43CC-B034-9F8957492CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D603B3-80B0-4524-B273-16CC66C66E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id_transicion</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>id_etapa_final</t>
-  </si>
-  <si>
-    <t>id_condicion</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -75,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,7 +366,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,11 +376,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,11 +387,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -409,11 +398,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -423,11 +409,8 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -437,22 +420,16 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MySQL/configuration/transiciones.xlsx
+++ b/MySQL/configuration/transiciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D603B3-80B0-4524-B273-16CC66C66E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F086C-AFD7-41C3-9721-F617A609B5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,8 +427,30 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MySQL/configuration/transiciones.xlsx
+++ b/MySQL/configuration/transiciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F086C-AFD7-41C3-9721-F617A609B5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F230A-B2B6-4340-B4E9-DF30A8EFFAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="1584" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +453,72 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
